--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf18-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf18-Fgfr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Fgf18</t>
+  </si>
+  <si>
+    <t>Fgfr1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Fgf18</t>
-  </si>
-  <si>
-    <t>Fgfr1</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4765323333333333</v>
+        <v>8.770835333333332</v>
       </c>
       <c r="H2">
-        <v>1.429597</v>
+        <v>26.312506</v>
       </c>
       <c r="I2">
-        <v>0.04733670697480491</v>
+        <v>0.9145494540267</v>
       </c>
       <c r="J2">
-        <v>0.04733670697480491</v>
+        <v>0.9145494540267</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.900730666666667</v>
+        <v>2.294987</v>
       </c>
       <c r="N2">
-        <v>17.702192</v>
+        <v>6.884961000000001</v>
       </c>
       <c r="O2">
-        <v>0.03970749001357476</v>
+        <v>0.0158275801650097</v>
       </c>
       <c r="P2">
-        <v>0.03970749001357476</v>
+        <v>0.0158275801650097</v>
       </c>
       <c r="Q2">
-        <v>2.811888952958222</v>
+        <v>20.12895306914067</v>
       </c>
       <c r="R2">
-        <v>25.307000576624</v>
+        <v>181.160577622266</v>
       </c>
       <c r="S2">
-        <v>0.001879621819477581</v>
+        <v>0.01447510479847345</v>
       </c>
       <c r="T2">
-        <v>0.001879621819477581</v>
+        <v>0.01447510479847345</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4765323333333333</v>
+        <v>8.770835333333332</v>
       </c>
       <c r="H3">
-        <v>1.429597</v>
+        <v>26.312506</v>
       </c>
       <c r="I3">
-        <v>0.04733670697480491</v>
+        <v>0.9145494540267</v>
       </c>
       <c r="J3">
-        <v>0.04733670697480491</v>
+        <v>0.9145494540267</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>334.775132</v>
       </c>
       <c r="O3">
-        <v>0.7509284844884279</v>
+        <v>0.769602070219672</v>
       </c>
       <c r="P3">
-        <v>0.7509284844884279</v>
+        <v>0.7696020702196722</v>
       </c>
       <c r="Q3">
-        <v>53.17705826464488</v>
+        <v>978.75251882231</v>
       </c>
       <c r="R3">
-        <v>478.593524381804</v>
+        <v>8808.772669400791</v>
       </c>
       <c r="S3">
-        <v>0.03554648162926304</v>
+        <v>0.703839153137219</v>
       </c>
       <c r="T3">
-        <v>0.03554648162926304</v>
+        <v>0.7038391531372192</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4765323333333333</v>
+        <v>8.770835333333332</v>
       </c>
       <c r="H4">
-        <v>1.429597</v>
+        <v>26.312506</v>
       </c>
       <c r="I4">
-        <v>0.04733670697480491</v>
+        <v>0.9145494540267</v>
       </c>
       <c r="J4">
-        <v>0.04733670697480491</v>
+        <v>0.9145494540267</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>31.11253633333334</v>
+        <v>31.11253633333333</v>
       </c>
       <c r="N4">
-        <v>93.33760900000001</v>
+        <v>93.337609</v>
       </c>
       <c r="O4">
-        <v>0.2093640254979974</v>
+        <v>0.2145703496153182</v>
       </c>
       <c r="P4">
-        <v>0.2093640254979974</v>
+        <v>0.2145703496153182</v>
       </c>
       <c r="Q4">
-        <v>14.82612953484145</v>
+        <v>272.8829329820171</v>
       </c>
       <c r="R4">
-        <v>133.435165813573</v>
+        <v>2455.946396838154</v>
       </c>
       <c r="S4">
-        <v>0.009910603526064288</v>
+        <v>0.1962351960910074</v>
       </c>
       <c r="T4">
-        <v>0.009910603526064288</v>
+        <v>0.1962351960910074</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,14 +705,14 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.770835333333332</v>
+        <v>0.8194993333333332</v>
       </c>
       <c r="H5">
-        <v>26.312506</v>
+        <v>2.458498</v>
       </c>
       <c r="I5">
-        <v>0.8712576945074703</v>
+        <v>0.08545054597330007</v>
       </c>
       <c r="J5">
-        <v>0.8712576945074703</v>
+        <v>0.08545054597330005</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.900730666666667</v>
+        <v>2.294987</v>
       </c>
       <c r="N5">
-        <v>17.702192</v>
+        <v>6.884961000000001</v>
       </c>
       <c r="O5">
-        <v>0.03970749001357476</v>
+        <v>0.0158275801650097</v>
       </c>
       <c r="P5">
-        <v>0.03970749001357476</v>
+        <v>0.0158275801650097</v>
       </c>
       <c r="Q5">
-        <v>51.75433702368355</v>
+        <v>1.880740316508667</v>
       </c>
       <c r="R5">
-        <v>465.789033213152</v>
+        <v>16.926662848578</v>
       </c>
       <c r="S5">
-        <v>0.03459545620390555</v>
+        <v>0.001352475366536254</v>
       </c>
       <c r="T5">
-        <v>0.03459545620390554</v>
+        <v>0.001352475366536254</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.770835333333332</v>
+        <v>0.8194993333333332</v>
       </c>
       <c r="H6">
-        <v>26.312506</v>
+        <v>2.458498</v>
       </c>
       <c r="I6">
-        <v>0.8712576945074703</v>
+        <v>0.08545054597330007</v>
       </c>
       <c r="J6">
-        <v>0.8712576945074703</v>
+        <v>0.08545054597330005</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>334.775132</v>
       </c>
       <c r="O6">
-        <v>0.7509284844884279</v>
+        <v>0.769602070219672</v>
       </c>
       <c r="P6">
-        <v>0.7509284844884279</v>
+        <v>0.7696020702196722</v>
       </c>
       <c r="Q6">
-        <v>978.75251882231</v>
+        <v>91.44933249685954</v>
       </c>
       <c r="R6">
-        <v>8808.772669400791</v>
+        <v>823.0439924717358</v>
       </c>
       <c r="S6">
-        <v>0.6542522201353763</v>
+        <v>0.06576291708245299</v>
       </c>
       <c r="T6">
-        <v>0.6542522201353763</v>
+        <v>0.06576291708245299</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.770835333333332</v>
+        <v>0.8194993333333332</v>
       </c>
       <c r="H7">
-        <v>26.312506</v>
+        <v>2.458498</v>
       </c>
       <c r="I7">
-        <v>0.8712576945074703</v>
+        <v>0.08545054597330007</v>
       </c>
       <c r="J7">
-        <v>0.8712576945074703</v>
+        <v>0.08545054597330005</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>31.11253633333334</v>
+        <v>31.11253633333333</v>
       </c>
       <c r="N7">
-        <v>93.33760900000001</v>
+        <v>93.337609</v>
       </c>
       <c r="O7">
-        <v>0.2093640254979974</v>
+        <v>0.2145703496153182</v>
       </c>
       <c r="P7">
-        <v>0.2093640254979974</v>
+        <v>0.2145703496153182</v>
       </c>
       <c r="Q7">
-        <v>272.8829329820171</v>
+        <v>25.49670278347578</v>
       </c>
       <c r="R7">
-        <v>2455.946396838154</v>
+        <v>229.470325051282</v>
       </c>
       <c r="S7">
-        <v>0.1824100181681885</v>
+        <v>0.01833515352431082</v>
       </c>
       <c r="T7">
-        <v>0.1824100181681885</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.8194993333333332</v>
-      </c>
-      <c r="H8">
-        <v>2.458498</v>
-      </c>
-      <c r="I8">
-        <v>0.08140559851772487</v>
-      </c>
-      <c r="J8">
-        <v>0.08140559851772486</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>5.900730666666667</v>
-      </c>
-      <c r="N8">
-        <v>17.702192</v>
-      </c>
-      <c r="O8">
-        <v>0.03970749001357476</v>
-      </c>
-      <c r="P8">
-        <v>0.03970749001357476</v>
-      </c>
-      <c r="Q8">
-        <v>4.835644847512889</v>
-      </c>
-      <c r="R8">
-        <v>43.520803627616</v>
-      </c>
-      <c r="S8">
-        <v>0.003232411990191637</v>
-      </c>
-      <c r="T8">
-        <v>0.003232411990191636</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.8194993333333332</v>
-      </c>
-      <c r="H9">
-        <v>2.458498</v>
-      </c>
-      <c r="I9">
-        <v>0.08140559851772487</v>
-      </c>
-      <c r="J9">
-        <v>0.08140559851772486</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>111.5917106666667</v>
-      </c>
-      <c r="N9">
-        <v>334.775132</v>
-      </c>
-      <c r="O9">
-        <v>0.7509284844884279</v>
-      </c>
-      <c r="P9">
-        <v>0.7509284844884279</v>
-      </c>
-      <c r="Q9">
-        <v>91.44933249685954</v>
-      </c>
-      <c r="R9">
-        <v>823.0439924717358</v>
-      </c>
-      <c r="S9">
-        <v>0.06112978272378855</v>
-      </c>
-      <c r="T9">
-        <v>0.06112978272378854</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.8194993333333332</v>
-      </c>
-      <c r="H10">
-        <v>2.458498</v>
-      </c>
-      <c r="I10">
-        <v>0.08140559851772487</v>
-      </c>
-      <c r="J10">
-        <v>0.08140559851772486</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>31.11253633333334</v>
-      </c>
-      <c r="N10">
-        <v>93.33760900000001</v>
-      </c>
-      <c r="O10">
-        <v>0.2093640254979974</v>
-      </c>
-      <c r="P10">
-        <v>0.2093640254979974</v>
-      </c>
-      <c r="Q10">
-        <v>25.49670278347578</v>
-      </c>
-      <c r="R10">
-        <v>229.470325051282</v>
-      </c>
-      <c r="S10">
-        <v>0.01704340380374469</v>
-      </c>
-      <c r="T10">
-        <v>0.01704340380374469</v>
+        <v>0.01833515352431082</v>
       </c>
     </row>
   </sheetData>
